--- a/biology/Botanique/Asemeia_violacea/Asemeia_violacea.xlsx
+++ b/biology/Botanique/Asemeia_violacea/Asemeia_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asemeia violacea (anciennement Polygala violacea Aubl.[2]) est une espèce de plantes herbacées néotropicale, appartenant à la famille des Polygalaceae.
-Elle est connue au Venezuela sous les noms de Juiqui-Juiqui, Pata de grillo, Rabo de alacrán, Raíz de cachicamo[3]. Au Brésil, on l'appelle Vassourinha de botão[4], ou Erva-iodeque[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asemeia violacea (anciennement Polygala violacea Aubl.) est une espèce de plantes herbacées néotropicale, appartenant à la famille des Polygalaceae.
+Elle est connue au Venezuela sous les noms de Juiqui-Juiqui, Pata de grillo, Rabo de alacrán, Raíz de cachicamo. Au Brésil, on l'appelle Vassourinha de botão, ou Erva-iodeque.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Asemeia violacea est une petite herbacée dressée peu ramifiée, haute de 20 à 40 cm.
 Les feuilles sont cartacées ou subcoriaces, réticulées sur les deux faces, de forme linéaires-laocolées, elliptiques ou elliptiques-lancéolées, très fines, herbacées, presque glabres ou légèrement pubérueuses, longues de 3-5 cm pour 0,6-1 cm de large, et avec des trichomes incurvés-apprimés.
@@ -524,8 +538,8 @@
 Les pétales supérieurs sont anguleux au milieu, semi-orbiculaires au sommet.
 La carène est dépourvue de crête.
 Le fruit est une capsule glabre, de forme elliptique-oblongue, et longue de 2–5 mm.
-La graine est cylindrique, densément pubérulente, avec à son sommet un arille en forme de crête, doté de deux courts appendices[6].
-Polygala violacea est une espèce très variable avec de grandes variations dans la forme des feuilles, la pubescence et l'abondance relative de la ciliation glandulaire sur les sépales externes[3].
+La graine est cylindrique, densément pubérulente, avec à son sommet un arille en forme de crête, doté de deux courts appendices.
+Polygala violacea est une espèce très variable avec de grandes variations dans la forme des feuilles, la pubescence et l'abondance relative de la ciliation glandulaire sur les sépales externes.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Asemeia violacea en Amérique du Sud et centrale, du Paraguay au Nicaragua en passant par la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Brésil, et la Bolivie[2]. Certains la signalent aussi depuis le sud de États-Unis (Floride, Louisiane, Mississippi), au Mexique, à Cuba et jusqu'en Argentine[3],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Asemeia violacea en Amérique du Sud et centrale, du Paraguay au Nicaragua en passant par la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Brésil, et la Bolivie. Certains la signalent aussi depuis le sud de États-Unis (Floride, Louisiane, Mississippi), au Mexique, à Cuba et jusqu'en Argentine,.
 </t>
         </is>
       </c>
@@ -585,13 +601,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asemeia violacea pousse dans les savanes, et dans les lisières forêts/savanes, autour de 50–1 300 mm d'altitude au Venezuela[3].
-Asemeia violacea est pollinisée au Brésil par les abeilles Jandaíra (Melipona subnitida Ducke), et Uruçu (Melipona scutellaris Latrelle)[4].
-La forme des feuilles d’Asemeia violacea varie selon les conditions écologiques[7].
-Le pollen d’Asemeia violacea a été étudié et testé en reconnaissance par Deep Learning[8].
-Asemeia violacea serait une plante adventice des cultures de pastèque dans les savanes du Roraima (Brésil)[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asemeia violacea pousse dans les savanes, et dans les lisières forêts/savanes, autour de 50–1 300 mm d'altitude au Venezuela.
+Asemeia violacea est pollinisée au Brésil par les abeilles Jandaíra (Melipona subnitida Ducke), et Uruçu (Melipona scutellaris Latrelle).
+La forme des feuilles d’Asemeia violacea varie selon les conditions écologiques.
+Le pollen d’Asemeia violacea a été étudié et testé en reconnaissance par Deep Learning.
+Asemeia violacea serait une plante adventice des cultures de pastèque dans les savanes du Roraima (Brésil).
 </t>
         </is>
       </c>
@@ -620,10 +638,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la Caatinga brésilienne, l'infusion ou la décoction de racines d’Asemeia violacea sert tradictionnellement de diurétique, d'émétique, d'expectorant et dans le traitement de la blennorragie.
-Les racines sont consommées et placées comme topique pour soigner les morsures de serpent. Son activité bactéricide sur Staphylococcus epidermidis a été testée sans succès[5], ce qui a été confirmé par une autre étude avec d'autres microbes[10].
+Les racines sont consommées et placées comme topique pour soigner les morsures de serpent. Son activité bactéricide sur Staphylococcus epidermidis a été testée sans succès, ce qui a été confirmé par une autre étude avec d'autres microbes.
 </t>
         </is>
       </c>
@@ -652,9 +672,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Asemeia violacea[11] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Asemeia violacea : 
 « POLYGALA (violacea) floribus criſtatis, foliis hirſutis, lanceolatis. (Tabula 294.)
 Plant a annua, caules plures, ſimplices, aut ramoſos, pedales, tomentoſos, è radice emittens. Folia alterna, lanceolata, tomentoſa, cinerea. Flores ſpicati, terminales ; ſinguli ex axilla ſquamulæ.
 Floret variis anni temporibus.
